--- a/documentatie/vergadering/Notule/Notulen_15-09-2017.xlsx
+++ b/documentatie/vergadering/Notule/Notulen_15-09-2017.xlsx
@@ -68,15 +68,9 @@
     <t>7 wat hebben we al af</t>
   </si>
   <si>
-    <t>Aanwezig: iedereen</t>
-  </si>
-  <si>
     <t>Afwezig: /</t>
   </si>
   <si>
-    <t>Notulen aan: iedereen</t>
-  </si>
-  <si>
     <t>ben</t>
   </si>
   <si>
@@ -108,6 +102,12 @@
   </si>
   <si>
     <t>alles behalve bovenstaande taken</t>
+  </si>
+  <si>
+    <t>Aanwezig: Ben Smits, Santi Dudok, Jarno Touw</t>
+  </si>
+  <si>
+    <t>notule aan: Ben Smits, Santi Dudok, Jarno Touw</t>
   </si>
 </sst>
 </file>
@@ -256,17 +256,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +664,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,10 +699,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+        <v>27</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="3"/>
@@ -720,10 +720,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="3"/>
@@ -741,10 +741,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
@@ -815,9 +815,9 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="23">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21">
         <v>42993</v>
       </c>
       <c r="F7" s="3"/>
@@ -838,13 +838,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="23">
+        <v>16</v>
+      </c>
+      <c r="E8" s="21">
         <v>42993</v>
       </c>
       <c r="F8" s="3"/>
@@ -866,10 +866,10 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="D9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="21">
         <v>42993</v>
       </c>
       <c r="F9" s="11"/>
@@ -890,15 +890,15 @@
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="23">
+      <c r="D10" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="21">
         <v>42993</v>
       </c>
       <c r="F10" s="11"/>
@@ -919,15 +919,15 @@
         <v>12</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="23">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21">
         <v>42993</v>
       </c>
     </row>
@@ -936,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>42993</v>
       </c>
     </row>
@@ -951,11 +951,11 @@
         <v>14</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>42993</v>
       </c>
     </row>
@@ -966,9 +966,9 @@
       <c r="B14" s="14"/>
       <c r="C14" s="12"/>
       <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="23">
+        <v>16</v>
+      </c>
+      <c r="E14" s="21">
         <v>42993</v>
       </c>
     </row>
@@ -979,9 +979,9 @@
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="23">
+        <v>16</v>
+      </c>
+      <c r="E15" s="21">
         <v>42993</v>
       </c>
     </row>
@@ -1125,6 +1125,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1173,32 +1188,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{579EC409-788A-470F-B358-7D465288959E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1218,9 +1211,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79336D9A-F347-4BF9-A03C-2F519BF74106}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{579EC409-788A-470F-B358-7D465288959E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>